--- a/public/data-toado.xlsx
+++ b/public/data-toado.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="69">
   <si>
     <t>Tọa độ 1</t>
   </si>
@@ -223,13 +223,16 @@
   </si>
   <si>
     <t>tọa độ</t>
+  </si>
+  <si>
+    <t>Chưa có</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -244,12 +247,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -276,15 +273,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,1041 +496,1679 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>5</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>5</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>6</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>6</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>6</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>6</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>6</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>7</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>7</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>7</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>8</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>8</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>8</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>9</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>9</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>10</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>10</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>10</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>11</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>11</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>11</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>11</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>12</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>12</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>12</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>12</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>12</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>13</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>13</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>13</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>13</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>13</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>14</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>14</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>14</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>15</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>15</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>15</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>15</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>15</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>16</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>16</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>17</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>17</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>17</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>18</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>18</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>18</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>19</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>19</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>19</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>19</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>20</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>20</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>21</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>21</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>21</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>21</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
         <v>22</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
         <v>22</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
         <v>22</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>22</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
         <v>22</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>23</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>23</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>23</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>23</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>23</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
         <v>24</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
         <v>24</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>24</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
         <v>24</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>24</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
         <v>25</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
         <v>25</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>25</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>25</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
         <v>26</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
         <v>26</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
         <v>26</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>26</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>26</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
         <v>27</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
         <v>27</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>27</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>27</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>27</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
         <v>28</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>28</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>28</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>28</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>28</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
         <v>29</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>29</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>29</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>29</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>29</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
         <v>30</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>30</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>30</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>30</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>30</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
